--- a/Submit/The Veil-17_Oct/Buile Order_Schedule_v1.0.xlsx
+++ b/Submit/The Veil-17_Oct/Buile Order_Schedule_v1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B45C90-C504-41A9-A2F9-05927156B746}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10-Oct " sheetId="1" r:id="rId1"/>
@@ -177,9 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Focus on animation and level building, and how to emphasize the veil.</t>
-  </si>
-  <si>
     <t>18/Oct-24/Oct</t>
   </si>
   <si>
@@ -220,22 +218,26 @@
 2.Victory
 3.Enemies</t>
   </si>
+  <si>
+    <t>Focus on animation and level building, and how to emphasize the veil.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,6 +567,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -592,22 +607,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -616,7 +618,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,21 +895,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="55.58203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -916,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" thickBot="1">
+    <row r="2" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -925,8 +927,8 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="56.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -936,8 +938,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,8 +947,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" ht="57" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -956,8 +958,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -965,8 +967,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickTop="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -976,8 +978,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,8 +987,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -994,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickTop="1"/>
+    <row r="10" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
@@ -1008,21 +1010,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="55.58203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -1031,17 +1033,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.25" thickBot="1">
+    <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="56.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1051,8 +1053,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:3" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1060,8 +1062,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" thickTop="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" ht="71" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1071,8 +1073,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1080,8 +1082,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1091,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" thickTop="1">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" ht="70.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1100,8 +1102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickTop="1"/>
+    <row r="10" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
@@ -1121,7 +1123,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'10-Oct '!$B$3:$B$4</xm:f>
           </x14:formula1>
@@ -1134,111 +1136,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.58203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.25" thickBot="1">
+    <row r="2" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="86.25" thickTop="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="84.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="86.25" thickTop="1">
+    <row r="5" spans="1:3" ht="84.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
-      <c r="B6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.25" thickTop="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
+      <c r="B7" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30" t="s">
-        <v>31</v>
+    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:3" ht="56.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickTop="1"/>
+    <row r="11" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
@@ -1255,12 +1257,13 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'10-Oct '!$B$3:$B$4</xm:f>
           </x14:formula1>
